--- a/notebook/validate_cdna_display/via_splint_ligation/replicate_doshi2014/optimize_nb_gfp_expression/optimize_nb_gfp_expression.xlsx
+++ b/notebook/validate_cdna_display/via_splint_ligation/replicate_doshi2014/optimize_nb_gfp_expression/optimize_nb_gfp_expression.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="9">
   <si>
     <t xml:space="preserve">template</t>
   </si>
@@ -31,28 +31,22 @@
     <t xml:space="preserve">f145</t>
   </si>
   <si>
-    <t xml:space="preserve">f146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f149</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f150</t>
-  </si>
-  <si>
     <t xml:space="preserve">-</t>
   </si>
   <si>
-    <t xml:space="preserve">stock conc [f144: ng/uL; f145: nM]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">final conc [f144: ng/uL; f145: nM]</t>
+    <t xml:space="preserve">stock conc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">final conc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">conc unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ng/µL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nM</t>
   </si>
 </sst>
 </file>
@@ -127,9 +121,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -149,167 +151,214 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="M10" activeCellId="0" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="0" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>3</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="0" t="n">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="C2" s="0" t="n">
+      <c r="C2" s="1" t="n">
         <v>95.6</v>
       </c>
-      <c r="D2" s="0" t="n">
+      <c r="D2" s="1" t="n">
         <v>45.7</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="1" t="n">
         <v>21.9</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="1" t="n">
         <v>10.4</v>
       </c>
-      <c r="G2" s="0" t="n">
+      <c r="G2" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="1" t="n">
         <v>10000</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="1" t="n">
         <v>4642</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="1" t="n">
         <v>2154</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="L2" s="1" t="n">
         <v>46.4</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2" s="1" t="n">
         <v>21.5</v>
       </c>
-      <c r="N2" s="0" t="n">
+      <c r="N2" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="O2" s="0" t="n">
+      <c r="O2" s="1" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="0" t="n">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="n">
         <f aca="false">B2*1.15/5</f>
         <v>46</v>
       </c>
-      <c r="C3" s="0" t="n">
+      <c r="C3" s="1" t="n">
         <f aca="false">C2*1.15/5</f>
         <v>21.988</v>
       </c>
-      <c r="D3" s="0" t="n">
+      <c r="D3" s="1" t="n">
         <f aca="false">D2*1.15/5</f>
         <v>10.511</v>
       </c>
-      <c r="E3" s="0" t="n">
+      <c r="E3" s="1" t="n">
         <f aca="false">E2*1.15/5</f>
         <v>5.037</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="1" t="n">
         <f aca="false">F2*1.15/5</f>
         <v>2.392</v>
       </c>
-      <c r="G3" s="0" t="n">
+      <c r="G3" s="1" t="n">
         <f aca="false">G2*1.15/5</f>
         <v>1.15</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="1" t="n">
         <f aca="false">H2*1.15/5</f>
         <v>2300</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="1" t="n">
         <f aca="false">I2*1.15/5</f>
         <v>1067.66</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" s="1" t="n">
         <f aca="false">J2*1.15/5</f>
         <v>495.42</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K3" s="1" t="n">
         <f aca="false">K2*1.15/5</f>
         <v>230</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="L3" s="1" t="n">
         <f aca="false">L2*1.15/5</f>
         <v>10.672</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M3" s="1" t="n">
         <f aca="false">M2*1.15/5</f>
         <v>4.945</v>
       </c>
-      <c r="N3" s="0" t="n">
+      <c r="N3" s="1" t="n">
         <f aca="false">N2*1.15/5</f>
         <v>2.3</v>
       </c>
-      <c r="O3" s="0" t="n">
+      <c r="O3" s="1" t="n">
         <f aca="false">O2*1.15/5</f>
         <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
